--- a/_data/WorldBankGDPData.xlsx
+++ b/_data/WorldBankGDPData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexgenovese/Desktop/R Work/DACSS601/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexgenovese/Desktop/R Work/DACSS601/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC70705A-2333-964A-9CD2-D9361F7E58AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E1B4FD-7D73-4649-94FA-06F5D70609A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9540" yWindow="1240" windowWidth="27640" windowHeight="16940" xr2:uid="{8BC6E551-09D9-F446-994B-91770D01FAE9}"/>
+    <workbookView xWindow="15460" yWindow="500" windowWidth="16920" windowHeight="20500" xr2:uid="{8BC6E551-09D9-F446-994B-91770D01FAE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="221">
   <si>
     <t>United States</t>
   </si>
@@ -694,6 +694,9 @@
   </si>
   <si>
     <t>Millions of US Dollars</t>
+  </si>
+  <si>
+    <t>Number of Universities Worldwide in 2020 by Country</t>
   </si>
 </sst>
 </file>
@@ -1057,15 +1060,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5322CA77-5661-8B46-A2F2-06C09BBCFEB8}">
-  <dimension ref="A1:C218"/>
+  <dimension ref="A1:D218"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="C230" sqref="C230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>217</v>
       </c>
@@ -1075,8 +1078,11 @@
       <c r="C1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1086,8 +1092,11 @@
       <c r="C2">
         <v>20936600</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>3254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1097,8 +1106,11 @@
       <c r="C3">
         <v>14722730.697890099</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1108,8 +1120,11 @@
       <c r="C4">
         <v>5064872.8756045895</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1119,8 +1134,11 @@
       <c r="C5">
         <v>3806060.1401245198</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1130,8 +1148,11 @@
       <c r="C6">
         <v>2707743.7771739103</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1141,8 +1162,11 @@
       <c r="C7">
         <v>2622983.7320064502</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>4381</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1152,8 +1176,11 @@
       <c r="C8">
         <v>2603004.3959019501</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1163,8 +1190,11 @@
       <c r="C9">
         <v>1886445.2683407099</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1174,8 +1204,11 @@
       <c r="C10">
         <v>1643407.9770689299</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1185,8 +1218,11 @@
       <c r="C11">
         <v>1630525.0054691101</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1196,8 +1232,11 @@
       <c r="C12">
         <v>1483497.7848676001</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1207,8 +1246,11 @@
       <c r="C13">
         <v>1444733.2589716499</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1219,7 +1261,7 @@
         <v>1330900.92505698</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1229,8 +1271,11 @@
       <c r="C15">
         <v>1281199.0910163501</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1240,8 +1285,11 @@
       <c r="C16">
         <v>1076163.31617494</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1251,8 +1299,11 @@
       <c r="C17">
         <v>1058423.83834514</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1263,7 +1314,7 @@
         <v>912242.33511906897</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1274,7 +1325,7 @@
         <v>747968.63617400802</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1285,7 +1336,7 @@
         <v>720101.212394114</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1296,7 +1347,7 @@
         <v>700117.87324926909</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1307,7 +1358,7 @@
         <v>594164.69089493598</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1318,7 +1369,7 @@
         <v>537609.86571901897</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1329,7 +1380,7 @@
         <v>515332.49962786102</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1340,7 +1391,7 @@
         <v>501794.96192524402</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1351,7 +1402,7 @@
         <v>432293.77626239799</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1362,7 +1413,7 @@
         <v>428965.39795945602</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1373,7 +1424,7 @@
         <v>421142.26793737203</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1384,7 +1435,7 @@
         <v>418621.81848230498</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1395,7 +1446,7 @@
         <v>401953.80483708699</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1406,7 +1457,7 @@
         <v>383066.97765356</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>

--- a/_data/WorldBankGDPData.xlsx
+++ b/_data/WorldBankGDPData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexgenovese/Desktop/R Work/DACSS601/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E1B4FD-7D73-4649-94FA-06F5D70609A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5F7E81-555A-014F-B720-5E405B8AE34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15460" yWindow="500" windowWidth="16920" windowHeight="20500" xr2:uid="{8BC6E551-09D9-F446-994B-91770D01FAE9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="220">
   <si>
     <t>United States</t>
   </si>
@@ -183,9 +183,6 @@
     <t>Peru</t>
   </si>
   <si>
-    <t>Iran, Islamic Rep.</t>
-  </si>
-  <si>
     <t>Greece</t>
   </si>
   <si>
@@ -696,7 +693,7 @@
     <t>Millions of US Dollars</t>
   </si>
   <si>
-    <t>Number of Universities Worldwide in 2020 by Country</t>
+    <t>Iran</t>
   </si>
 </sst>
 </file>
@@ -1060,29 +1057,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5322CA77-5661-8B46-A2F2-06C09BBCFEB8}">
-  <dimension ref="A1:D218"/>
+  <dimension ref="A1:C218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
-      <selection activeCell="C230" sqref="C230"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" t="s">
         <v>217</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>218</v>
       </c>
-      <c r="C1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1092,11 +1086,8 @@
       <c r="C2">
         <v>20936600</v>
       </c>
-      <c r="D2">
-        <v>3254</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1106,11 +1097,8 @@
       <c r="C3">
         <v>14722730.697890099</v>
       </c>
-      <c r="D3">
-        <v>2595</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1120,11 +1108,8 @@
       <c r="C4">
         <v>5064872.8756045895</v>
       </c>
-      <c r="D4">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1134,11 +1119,8 @@
       <c r="C5">
         <v>3806060.1401245198</v>
       </c>
-      <c r="D5">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1148,11 +1130,8 @@
       <c r="C6">
         <v>2707743.7771739103</v>
       </c>
-      <c r="D6">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1162,11 +1141,8 @@
       <c r="C7">
         <v>2622983.7320064502</v>
       </c>
-      <c r="D7">
-        <v>4381</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1176,11 +1152,8 @@
       <c r="C8">
         <v>2603004.3959019501</v>
       </c>
-      <c r="D8">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1190,11 +1163,8 @@
       <c r="C9">
         <v>1886445.2683407099</v>
       </c>
-      <c r="D9">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1204,11 +1174,8 @@
       <c r="C10">
         <v>1643407.9770689299</v>
       </c>
-      <c r="D10">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1218,11 +1185,8 @@
       <c r="C11">
         <v>1630525.0054691101</v>
       </c>
-      <c r="D11">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1232,11 +1196,8 @@
       <c r="C12">
         <v>1483497.7848676001</v>
       </c>
-      <c r="D12">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1246,11 +1207,8 @@
       <c r="C13">
         <v>1444733.2589716499</v>
       </c>
-      <c r="D13">
-        <v>1349</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1261,7 +1219,7 @@
         <v>1330900.92505698</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1271,11 +1229,8 @@
       <c r="C15">
         <v>1281199.0910163501</v>
       </c>
-      <c r="D15">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1285,11 +1240,8 @@
       <c r="C16">
         <v>1076163.31617494</v>
       </c>
-      <c r="D16">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1299,11 +1251,8 @@
       <c r="C17">
         <v>1058423.83834514</v>
       </c>
-      <c r="D17">
-        <v>2694</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1314,7 +1263,7 @@
         <v>912242.33511906897</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1325,7 +1274,7 @@
         <v>747968.63617400802</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1336,7 +1285,7 @@
         <v>720101.212394114</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1347,7 +1296,7 @@
         <v>700117.87324926909</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1358,7 +1307,7 @@
         <v>594164.69089493598</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1369,7 +1318,7 @@
         <v>537609.86571901897</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1380,7 +1329,7 @@
         <v>515332.49962786102</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1391,7 +1340,7 @@
         <v>501794.96192524402</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1402,7 +1351,7 @@
         <v>432293.77626239799</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1413,7 +1362,7 @@
         <v>428965.39795945602</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1424,7 +1373,7 @@
         <v>421142.26793737203</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1435,7 +1384,7 @@
         <v>418621.81848230498</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1446,7 +1395,7 @@
         <v>401953.80483708699</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1457,7 +1406,7 @@
         <v>383066.97765356</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1671,7 +1620,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>219</v>
       </c>
       <c r="C51">
         <v>191718.27148375899</v>
@@ -1682,7 +1631,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C52">
         <v>189410.10662001598</v>
@@ -1693,7 +1642,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C53">
         <v>169835.42642715303</v>
@@ -1704,7 +1653,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C54">
         <v>167224.43256031899</v>
@@ -1715,7 +1664,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C55">
         <v>155582.00871742598</v>
@@ -1726,7 +1675,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C56">
         <v>155012.927629087</v>
@@ -1737,7 +1686,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C57">
         <v>146373.58886651098</v>
@@ -1748,7 +1697,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C58">
         <v>145163.90222816801</v>
@@ -1759,7 +1708,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C59">
         <v>136196.76018097601</v>
@@ -1770,7 +1719,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C60">
         <v>112870.59169404401</v>
@@ -1781,7 +1730,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61">
         <v>107645.05431187601</v>
@@ -1792,7 +1741,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C62">
         <v>104574.14624836399</v>
@@ -1803,7 +1752,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C63">
         <v>103138.3</v>
@@ -1814,7 +1763,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C64">
         <v>103131</v>
@@ -1825,7 +1774,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C65">
         <v>98842.939649114895</v>
@@ -1836,7 +1785,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C66">
         <v>98808.01</v>
@@ -1847,7 +1796,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C67">
         <v>80706.600228649899</v>
@@ -1858,7 +1807,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C68">
         <v>78844.7023290785</v>
@@ -1869,7 +1818,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C69">
         <v>77604.63217058529</v>
@@ -1880,7 +1829,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C70">
         <v>76331.518668577104</v>
@@ -1891,7 +1840,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C71">
         <v>76185.5860967974</v>
@@ -1902,7 +1851,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C72">
         <v>73263.982103011906</v>
@@ -1913,7 +1862,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C73">
         <v>72354.428864903195</v>
@@ -1924,7 +1873,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C74">
         <v>69105.101089553107</v>
@@ -1935,7 +1884,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C75">
         <v>62409.748426582395</v>
@@ -1946,7 +1895,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C76">
         <v>62306.913444291706</v>
@@ -1957,7 +1906,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C77">
         <v>61520.669890403704</v>
@@ -1968,7 +1917,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C78">
         <v>61348.579465101699</v>
@@ -1979,7 +1928,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C79">
         <v>60258.239055582904</v>
@@ -1990,7 +1939,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C80">
         <v>57707.1899454214</v>
@@ -2001,7 +1950,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C81">
         <v>55966.581780168803</v>
@@ -2012,7 +1961,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C82">
         <v>55887.271833002502</v>
@@ -2023,7 +1972,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C83">
         <v>55153.707948702104</v>
@@ -2034,7 +1983,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C84">
         <v>53628.827440358204</v>
@@ -2045,7 +1994,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C85">
         <v>52960.134078688796</v>
@@ -2056,7 +2005,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C86">
         <v>52938.1</v>
@@ -2067,7 +2016,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C87">
         <v>52880.473699880306</v>
@@ -2078,7 +2027,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C88">
         <v>49868.9706411062</v>
@@ -2089,7 +2038,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C89">
         <v>45231.428571428594</v>
@@ -2100,7 +2049,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C90">
         <v>43697.659275313701</v>
@@ -2111,7 +2060,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C91">
         <v>42607.176470588201</v>
@@ -2122,7 +2071,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C92">
         <v>39802.147568217399</v>
@@ -2133,7 +2082,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C93">
         <v>39235.672868272202</v>
@@ -2144,7 +2093,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94">
         <v>38474.521276595704</v>
@@ -2155,7 +2104,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C95">
         <v>37372.032557594401</v>
@@ -2166,7 +2115,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C96">
         <v>36688.861202604894</v>
@@ -2177,7 +2126,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C97">
         <v>35304.238230113195</v>
@@ -2188,7 +2137,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C98">
         <v>33657.175561329001</v>
@@ -2199,7 +2148,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C99">
         <v>33505.185228706701</v>
@@ -2210,7 +2159,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C100">
         <v>33383.246857580001</v>
@@ -2221,7 +2170,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C101">
         <v>31029.968591277902</v>
@@ -2232,7 +2181,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C102">
         <v>26110.8291904008</v>
@@ -2243,7 +2192,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C103">
         <v>25418.461532200803</v>
@@ -2254,7 +2203,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C104">
         <v>25291.2514273979</v>
@@ -2265,7 +2214,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C105">
         <v>24910.904235856997</v>
@@ -2276,7 +2225,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C106">
         <v>24638.720000000001</v>
@@ -2287,7 +2236,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C107">
         <v>23827.8408097014</v>
@@ -2298,7 +2247,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C108">
         <v>23804.340376927503</v>
@@ -2309,7 +2258,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C109">
         <v>23591.523025286398</v>
@@ -2320,7 +2269,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C110">
         <v>23486.2695989858</v>
@@ -2331,7 +2280,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C111">
         <v>21714.670569603299</v>
@@ -2342,7 +2291,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C112">
         <v>21529.824769296902</v>
@@ -2353,7 +2302,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C113">
         <v>19807.0672681084</v>
@@ -2364,7 +2313,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C114">
         <v>19788.422248107199</v>
@@ -2375,7 +2324,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C115">
         <v>19320.053859279</v>
@@ -2386,7 +2335,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C116">
         <v>19136.194848653402</v>
@@ -2397,7 +2346,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C117">
         <v>17393.761397080503</v>
@@ -2408,7 +2357,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C118">
         <v>17369.0592952226</v>
@@ -2419,7 +2368,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C119">
         <v>16768.513442641499</v>
@@ -2430,7 +2379,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C120">
         <v>15891.6889031843</v>
@@ -2441,7 +2390,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C121">
         <v>15781.732825893399</v>
@@ -2452,7 +2401,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C122">
         <v>15681.0509171588</v>
@@ -2463,7 +2412,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C123">
         <v>15651.5452088783</v>
@@ -2474,7 +2423,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C124">
         <v>15593.181270913499</v>
@@ -2485,7 +2434,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C125">
         <v>15561.3</v>
@@ -2496,7 +2445,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C126">
         <v>14799.615097100799</v>
@@ -2507,7 +2456,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C127">
         <v>14647.384607604001</v>
@@ -2518,7 +2467,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C128">
         <v>14021.421105907801</v>
@@ -2529,7 +2478,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C129">
         <v>13812.421803408399</v>
@@ -2540,7 +2489,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C130">
         <v>13720.634105403</v>
@@ -2551,7 +2500,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C131">
         <v>13678.2340084714</v>
@@ -2562,7 +2511,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C132">
         <v>13417.997065109899</v>
@@ -2573,7 +2522,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C133">
         <v>13137.128659479</v>
@@ -2584,7 +2533,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C134">
         <v>12645.4592135235</v>
@@ -2595,7 +2544,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C135">
         <v>12621.476263827801</v>
@@ -2606,7 +2555,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C136">
         <v>12266.9498051436</v>
@@ -2617,7 +2566,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C137">
         <v>12016.0566653473</v>
@@ -2628,7 +2577,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C138">
         <v>11961.848552597699</v>
@@ -2639,7 +2588,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C139">
         <v>11914.0409052626</v>
@@ -2650,7 +2599,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C140">
         <v>11250</v>
@@ -2661,7 +2610,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C141">
         <v>10914.065306242301</v>
@@ -2672,7 +2621,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C142">
         <v>10884.686142644199</v>
@@ -2683,7 +2632,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C143">
         <v>10699.926682651301</v>
@@ -2694,7 +2643,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C144">
         <v>10333.991891703199</v>
@@ -2705,7 +2654,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C145">
         <v>10093.118570291799</v>
@@ -2716,7 +2665,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C146">
         <v>10021.8567544944</v>
@@ -2727,7 +2676,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C147">
         <v>8194.1503017855193</v>
@@ -2738,7 +2687,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C148">
         <v>7778.5256429288302</v>
@@ -2749,7 +2698,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C149">
         <v>7735.9766126416298</v>
@@ -2760,7 +2709,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C150">
         <v>7611.4021652421707</v>
@@ -2771,7 +2720,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C151">
         <v>7574.6352413019104</v>
@@ -2782,7 +2731,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C152">
         <v>7491.9693128752497</v>
@@ -2793,7 +2742,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C153">
         <v>7484.1130000000003</v>
@@ -2804,7 +2753,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C154">
         <v>7423.7098399194001</v>
@@ -2815,7 +2764,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C155">
         <v>6839.1451068616398</v>
@@ -2826,7 +2775,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C156">
         <v>6311</v>
@@ -2837,7 +2786,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C157">
         <v>5935.7693507740296</v>
@@ -2848,7 +2797,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C158">
         <v>5471.2565947242201</v>
@@ -2859,7 +2808,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C159">
         <v>4917.6075822289495</v>
@@ -2870,7 +2819,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C160">
         <v>4778.5823361823395</v>
@@ -2881,7 +2830,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C161">
         <v>4376.0147555761496</v>
@@ -2892,7 +2841,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C162">
         <v>4365.5</v>
@@ -2903,7 +2852,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C163">
         <v>4030.2031667748197</v>
@@ -2914,7 +2863,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C164">
         <v>3984</v>
@@ -2925,7 +2874,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C165">
         <v>3962.4930929930802</v>
@@ -2936,7 +2885,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C166">
         <v>3865.0188828975502</v>
@@ -2947,7 +2896,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C167">
         <v>3807.9228744830598</v>
@@ -2958,7 +2907,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C168">
         <v>3384.40426007202</v>
@@ -2969,7 +2918,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C169">
         <v>3258.1872326315897</v>
@@ -2980,7 +2929,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C170">
         <v>3202.1886069289299</v>
@@ -2991,7 +2940,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C171">
         <v>3155.0654875181899</v>
@@ -3002,7 +2951,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C172">
         <v>3126.29321977989</v>
@@ -3013,7 +2962,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C173">
         <v>3101.78770949721</v>
@@ -3024,7 +2973,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C174">
         <v>3051.62638963671</v>
@@ -3035,7 +2984,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C175">
         <v>2950</v>
@@ -3046,7 +2995,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C176">
         <v>2409.26283821987</v>
@@ -3057,7 +3006,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C177">
         <v>2303.0783375743099</v>
@@ -3068,7 +3017,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C178">
         <v>1901.9301576452799</v>
@@ -3079,7 +3028,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C179">
         <v>1844.5101376781699</v>
@@ -3090,7 +3039,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C180">
         <v>1821</v>
@@ -3101,7 +3050,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C181">
         <v>1763.6961189519</v>
@@ -3112,7 +3061,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C182">
         <v>1703.6986766974198</v>
@@ -3123,7 +3072,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C183">
         <v>1703.3642407407401</v>
@@ -3134,7 +3083,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C184">
         <v>1616.3696459963501</v>
@@ -3145,7 +3094,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C185">
         <v>1551.2455256045</v>
@@ -3156,7 +3105,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C186">
         <v>1431.75824290375</v>
@@ -3167,7 +3116,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C187">
         <v>1415.05925925926</v>
@@ -3178,7 +3127,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C188">
         <v>1219.6900245028701</v>
@@ -3189,7 +3138,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C189">
         <v>1185.4748603352</v>
@@ -3200,7 +3149,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C190">
         <v>1182</v>
@@ -3211,7 +3160,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C191">
         <v>1124.9375</v>
@@ -3222,7 +3171,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C192">
         <v>1089.2037037037001</v>
@@ -3233,7 +3182,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C193">
         <v>927.4518518518521</v>
@@ -3244,7 +3193,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C194">
         <v>924.58299999999997</v>
@@ -3255,7 +3204,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C195">
         <v>854.79364014560599</v>
@@ -3266,7 +3215,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C196">
         <v>809.681481481481</v>
@@ -3277,7 +3226,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C197">
         <v>807.02724442138003</v>
@@ -3288,7 +3237,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C198">
         <v>638</v>
@@ -3299,7 +3248,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C199">
         <v>512.350059421629</v>
@@ -3310,7 +3259,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C200">
         <v>472.91446991932997</v>
@@ -3321,7 +3270,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C201">
         <v>469.87037037036998</v>
@@ -3332,7 +3281,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C202">
         <v>408.06060000000002</v>
@@ -3343,7 +3292,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C203">
         <v>268.35489999999999</v>
@@ -3354,7 +3303,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C204">
         <v>239.4622</v>
@@ -3365,7 +3314,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C205">
         <v>199.57332599270498</v>
@@ -3376,7 +3325,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C206">
         <v>118.22343012444601</v>
@@ -3387,7 +3336,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C207">
         <v>48.855550203014204</v>
@@ -3395,7 +3344,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C208">
         <v>0</v>
@@ -3403,7 +3352,7 @@
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C209">
         <v>0</v>
@@ -3411,7 +3360,7 @@
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B210" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C210">
         <v>0</v>
@@ -3419,7 +3368,7 @@
     </row>
     <row r="211" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B211" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C211">
         <v>0</v>
@@ -3427,7 +3376,7 @@
     </row>
     <row r="212" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B212" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C212">
         <v>0</v>
@@ -3435,7 +3384,7 @@
     </row>
     <row r="213" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B213" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C213">
         <v>0</v>
@@ -3443,7 +3392,7 @@
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B214" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C214">
         <v>0</v>
@@ -3451,7 +3400,7 @@
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B215" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C215">
         <v>0</v>
@@ -3459,7 +3408,7 @@
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B216" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C216">
         <v>0</v>
@@ -3467,7 +3416,7 @@
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B217" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C217">
         <v>0</v>
@@ -3475,7 +3424,7 @@
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B218" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C218">
         <v>0</v>
